--- a/form_reporting_templates/interim/Form-1DI_interim.xlsx
+++ b/form_reporting_templates/interim/Form-1DI_interim.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\R libs\workflow\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\interim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5308F77A-E9E5-49D7-B166-EECD4C2AE6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE531800-86BF-4A33-90C5-6463C8EB0411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Z3raniWjLRXszYCbzXa/TU1R8wd1kHrHNccmNn7mHkAZRDJmvrP7BMraCIbrDBSr6tBMzuhQ6TxYUg6cyC/1Bg==" workbookSaltValue="C01nC0I7gdRYfsDcA3RybQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -84,9 +84,6 @@
     <t>Form</t>
   </si>
   <si>
-    <t>1-DI</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -100,12 +97,6 @@
   </si>
   <si>
     <t>Source coverage</t>
-  </si>
-  <si>
-    <t>IOTC form 1-DI | metadata</t>
-  </si>
-  <si>
-    <t>IOTC form 1-DI | data</t>
   </si>
   <si>
     <t>Data raising</t>
@@ -170,6 +161,15 @@
   </si>
   <si>
     <t>Finalisation date</t>
+  </si>
+  <si>
+    <t>IOTC Form 1DI | data</t>
+  </si>
+  <si>
+    <t>IOTC Form 1DI | metadata</t>
+  </si>
+  <si>
+    <t>1DI</t>
   </si>
 </sst>
 </file>
@@ -1493,7 +1493,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="84" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C2" s="85"/>
       <c r="D2" s="85"/>
@@ -1517,14 +1517,14 @@
         <v>14</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -1565,7 +1565,7 @@
       <c r="D8" s="83"/>
       <c r="E8" s="10"/>
       <c r="F8" s="83" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G8" s="83"/>
       <c r="H8" s="11"/>
@@ -1586,12 +1586,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G10" s="24"/>
       <c r="H10" s="11"/>
@@ -1608,7 +1608,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D12" s="39"/>
       <c r="E12" s="10"/>
@@ -1679,7 +1679,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="53" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D19" s="40"/>
       <c r="E19" s="10"/>
@@ -1759,7 +1759,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/7xVg0ceMuuzokJMThBrAdiopJIb6BHbkZIVgGq2v7uaObo34M6L9tEZr4f1Z2V9Vs9cawMlPOx5010D36SdxA==" saltValue="dm+4gVFhSrhFRGTTKqMOHA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0uWeWYSYOHftSfm7+g10O3D0iADw3euT2xRscQy/v1HiT81tXIZhi6utgisI9hjcJNgGaH0AX7N2aFXpjvLcmQ==" saltValue="WYZ7zLsHAg7EJtyEK/Ti+g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="2" spans="1:212" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="84" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C2" s="85"/>
       <c r="D2" s="85"/>
@@ -2042,7 +2042,7 @@
       <c r="K3" s="88"/>
       <c r="L3" s="112"/>
       <c r="M3" s="108" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N3" s="109"/>
       <c r="O3" s="109"/>
@@ -2246,19 +2246,19 @@
     </row>
     <row r="4" spans="1:212" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="90" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4" s="91"/>
       <c r="D4" s="91"/>
       <c r="E4" s="91"/>
       <c r="F4" s="92"/>
       <c r="G4" s="99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="100"/>
       <c r="I4" s="101"/>
       <c r="J4" s="99" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4" s="101"/>
       <c r="L4" s="63" t="s">
@@ -2692,7 +2692,7 @@
       <c r="J6" s="105"/>
       <c r="K6" s="107"/>
       <c r="L6" s="51" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M6" s="26"/>
       <c r="N6" s="27"/>
@@ -2903,31 +2903,31 @@
         <v>6</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F7" s="57" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G7" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="59" t="s">
-        <v>17</v>
-      </c>
       <c r="J7" s="61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7" s="62" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L7" s="64" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M7" s="29"/>
       <c r="N7" s="30"/>
@@ -4134,7 +4134,7 @@
       <c r="HD1048575" s="47"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YWIsA9eqMSf0n4395nPBQFB6kbpB/9XAyDsLz81HLABM0BgId9KIUY8+qZjZE6Vc9XbY68ENfUbK5qidgd+EzA==" saltValue="rfZEofQ6OLarJIBXFqRE1Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mirHfY9i+rMt13A4Dgj2VIrHzgZnlgqgiT/6js1tiDf/Vq3k/IXXScBji/1avuBd27gZZhJP3Mtx4LzC1XuoaA==" saltValue="Ane1BlxBUHZWuc5D1Ur+2g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="6">
     <mergeCell ref="B4:F6"/>
     <mergeCell ref="G4:I6"/>

--- a/form_reporting_templates/interim/Form-1DI_interim.xlsx
+++ b/form_reporting_templates/interim/Form-1DI_interim.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\interim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\interim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE531800-86BF-4A33-90C5-6463C8EB0411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8F546E-CCE7-4BCE-9EE1-B1E38EE98896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Z3raniWjLRXszYCbzXa/TU1R8wd1kHrHNccmNn7mHkAZRDJmvrP7BMraCIbrDBSr6tBMzuhQ6TxYUg6cyC/1Bg==" workbookSaltValue="C01nC0I7gdRYfsDcA3RybQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>General information</t>
-  </si>
-  <si>
-    <t>Flag country</t>
   </si>
   <si>
     <t>Reporting year</t>
@@ -170,6 +167,9 @@
   </si>
   <si>
     <t>1DI</t>
+  </si>
+  <si>
+    <t>Flag state</t>
   </si>
 </sst>
 </file>
@@ -1493,7 +1493,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="85"/>
       <c r="D2" s="85"/>
@@ -1514,17 +1514,17 @@
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -1540,7 +1540,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="9"/>
       <c r="C6" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -1565,7 +1565,7 @@
       <c r="D8" s="83"/>
       <c r="E8" s="10"/>
       <c r="F8" s="83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="83"/>
       <c r="H8" s="11"/>
@@ -1586,12 +1586,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="24"/>
       <c r="H10" s="11"/>
@@ -1608,7 +1608,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="39"/>
       <c r="E12" s="10"/>
@@ -1619,7 +1619,7 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="39"/>
       <c r="E13" s="10"/>
@@ -1668,7 +1668,7 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="40"/>
       <c r="E18" s="10"/>
@@ -1679,7 +1679,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="40"/>
       <c r="E19" s="10"/>
@@ -1690,7 +1690,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="52" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D20" s="40"/>
       <c r="E20" s="10"/>
@@ -1719,7 +1719,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
       <c r="C23" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="10"/>
@@ -1759,7 +1759,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0uWeWYSYOHftSfm7+g10O3D0iADw3euT2xRscQy/v1HiT81tXIZhi6utgisI9hjcJNgGaH0AX7N2aFXpjvLcmQ==" saltValue="WYZ7zLsHAg7EJtyEK/Ti+g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="koUKhwW3704kF7SImVx8zUTZA/Qm6LLD+QWHIL19WYbzaldn16CRxTSdBM0N41ldjpZwFPd/wQ+uhuGWFku2HQ==" saltValue="Z3zjr1csYUzhq/5db8kcLA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1773,7 +1773,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C19" r:id="rId1" location="entities" xr:uid="{3E135360-8976-4AAA-8474-BB32F06C9745}"/>
-    <hyperlink ref="C20" r:id="rId2" location="countries" xr:uid="{F730E8AF-D3A7-4431-9DD3-422CC542A285}"/>
+    <hyperlink ref="C20" r:id="rId2" location="countries" display="Flag country" xr:uid="{F730E8AF-D3A7-4431-9DD3-422CC542A285}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="2" spans="1:212" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="85"/>
       <c r="D2" s="85"/>
@@ -2042,7 +2042,7 @@
       <c r="K3" s="88"/>
       <c r="L3" s="112"/>
       <c r="M3" s="108" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N3" s="109"/>
       <c r="O3" s="109"/>
@@ -2246,23 +2246,23 @@
     </row>
     <row r="4" spans="1:212" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="91"/>
       <c r="D4" s="91"/>
       <c r="E4" s="91"/>
       <c r="F4" s="92"/>
       <c r="G4" s="99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="100"/>
       <c r="I4" s="101"/>
       <c r="J4" s="99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" s="101"/>
       <c r="L4" s="63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M4" s="26"/>
       <c r="N4" s="27"/>
@@ -2477,7 +2477,7 @@
       <c r="J5" s="102"/>
       <c r="K5" s="104"/>
       <c r="L5" s="51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M5" s="26"/>
       <c r="N5" s="27"/>
@@ -2692,7 +2692,7 @@
       <c r="J6" s="105"/>
       <c r="K6" s="107"/>
       <c r="L6" s="51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M6" s="26"/>
       <c r="N6" s="27"/>
@@ -2897,37 +2897,37 @@
     </row>
     <row r="7" spans="1:212" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="59" t="s">
-        <v>16</v>
-      </c>
       <c r="J7" s="61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K7" s="62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L7" s="64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M7" s="29"/>
       <c r="N7" s="30"/>
